--- a/Documents/GetBuildNumber.xlsx
+++ b/Documents/GetBuildNumber.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\MouriNaruto\NanaRun\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{709A4411-590E-4A66-96F5-7B04893B867F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B19E7C4-5EB8-4B3F-9D9F-0051DD5CA07C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1980" yWindow="2388" windowWidth="23040" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3708" yWindow="4440" windowWidth="23040" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>The build number of NanaBox:</t>
+    <t>The build number of NanaRun:</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -380,9 +380,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
@@ -396,7 +394,7 @@
       </c>
       <c r="B1" s="3">
         <f ca="1">INT(TODAY()) - INT(DATE(2022,5,16))</f>
-        <v>0</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
